--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/56_Manisa_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/56_Manisa_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52BE6123-FE92-4CFD-9BD8-F2644721B15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A24D45D-A940-4088-87D1-82DC8B5C8CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" xr2:uid="{13C5856F-42B6-4454-9C65-74A61F7718A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" xr2:uid="{4DB822FD-EEDF-4D0B-BFF6-78CEB505F0C4}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -952,13 +952,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{4C913EF8-24DC-4DF6-A0AA-459F8AAC0FDC}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C2A886F2-BA13-4B9D-882C-61283A2525BD}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{C8D5F301-3E68-4031-AE26-911924686C2A}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{6266C392-8ECD-4AF2-B583-14DA38034184}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{018B9BBD-844E-49F2-B220-3BEC1D50C4C5}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{917FED6D-6D80-4E6A-B623-0BDCB4D7C427}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{9281B794-9FD2-4DE4-A320-8FF53172C9D7}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{0C58EE74-6D9F-495A-8576-16708515BE73}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{73FC276B-BEC2-403F-A6DB-7A7D10283325}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{8893DEDB-A40D-409D-8027-ED8F33590C42}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{9F671BC9-19C3-4E7D-AB7D-5F79247A0D4A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A08FD19B-4D09-49CC-A369-3839D35743C2}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{34B4AEF7-5305-4367-8805-35AA0C5306EE}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D9CDD7CF-F66B-45F3-B95E-5CBFAF510FE8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33876AFF-98EC-40A2-B9EF-360ABADBB05D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F317DFA6-3803-4CA5-AFF4-4902C13B24C8}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2610,18 +2610,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C13519F0-518F-422F-87FD-C707301FB77A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B1D1CD6-E977-4912-BA44-410A587D09C1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9EF36CCC-6DB9-4321-B7A9-0F0D98C2CDC6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4FE23C5F-7203-4329-BDD7-C786EB13F6CC}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{42A9E3F2-BD9A-4360-81A1-68D80B4E1C5E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{45F25751-CC43-4E28-A652-CF2F79553AFA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EEC8508E-24C5-4336-BE2D-17F46074BB55}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B2F2313-3CA2-4171-BFFA-BF7971943547}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{32675EF1-6995-410F-AE70-1CEF6863A4A5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7714B032-0D3B-4327-8C94-AC9E628EE888}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{630800C1-C80C-4351-AB87-0BC0A5BBCCEA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EEF7BC87-D0EF-45AD-BDF5-7270FC7AFB9C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D3D4A2E-600B-4E20-98E0-F12FE0FA4C23}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{06FADD50-0098-48BE-8DFA-B0C03BEAB068}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D33B562A-8326-4F04-96DD-04FEAB42E825}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{87A09736-1238-43E3-8008-64D3BA685406}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{685B708C-9B74-4DA8-8B7C-FBC69DF61822}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3BEF09C6-6520-48A6-B0ED-B152BA3D4A88}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A7124C34-D81F-4510-9114-1B1282B64FD8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{68C58A30-842D-4E4F-AD87-963DAC43B070}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{14B09FB9-878B-4136-8C62-57783FABE1CD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{037CA9CA-D195-4A88-921A-161EAA6FDDD0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2CA0786E-F257-4D27-8D1E-960E75794E86}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FCC12607-7B76-42A6-9961-4F2CD7EEAC82}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2634,7 +2634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADB5F30-8110-4016-876B-5BB3B8B7CD51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3C3A2F-5647-4791-A20D-67A8EE22712F}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3906,18 +3906,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB97F862-FA0F-4F5D-9F37-6821A50E3E66}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C733E8A1-AF4D-4DC0-8F5B-0AB6869638AC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{00FE0632-9B5F-48A2-8F54-C808AD8CE600}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8671B0AC-F3CD-42CF-9070-042742255A94}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{24CD4600-31E8-4BA9-AE3F-2802812D1863}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8B0CA4C8-4552-47B1-BF1C-FF12C060C585}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8DC2B346-8959-429D-8331-241BA59699F6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DBD03CAC-2EC6-45E0-BD91-FBE240A564CF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C0A01B86-8F7E-4DBD-9D8F-4D82D6167A05}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F354585C-941D-4128-AD1E-AFDA85873903}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F4097506-ACB3-45C5-886D-C1F860DF4696}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{95E2D8AF-7DDE-4071-9E11-598E23E9420A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9030BCDD-8B78-4ADB-8177-64C75C320511}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3C4A179C-247F-4F61-9F2D-ADAF79749F5B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{870A9673-F868-48DB-B3ED-0FBD9D5C12DE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5B8F1B63-C470-4E61-A482-C596CAEF94F1}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{24DACBD0-06F2-4B54-8F7A-D1DB9C78B83D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{63F9955B-EE7B-4C93-B858-A082EE1F030D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2F92FC92-63DA-4183-95DC-41E47EFEC16F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E37AFFC-81B3-401A-B8D7-3A74B35C0069}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F0A62A3F-AF18-46D6-80CA-A803AE25EE1B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B90360F0-B860-47A0-9EE8-9F103C106A31}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DFF9ACC4-62A3-4526-A109-0E6F612A5191}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4454551D-BAD5-4875-BED4-B7C86FFAE540}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3930,7 +3930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CA910F-94A4-49EC-A1AD-92E592FEBB1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAF4074-2282-45D0-81E2-DA5F45D9507C}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5198,18 +5198,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{150DDEC2-4794-4B9A-84E8-16B3CCCF53FD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0706E3EB-63A7-4EBE-B0E6-B0CBB3939C2D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B87B10C9-86AD-467C-BBF6-F5090B2E283B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{788EF3A6-BF5F-4697-AB9A-E3A1895BE783}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{786750FB-D6ED-4E26-8B8C-41EFBDAD7FC2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6BB4B117-343C-4AA1-8AEC-A3975AAB7716}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07BE4C44-48E3-4036-82DB-AD359588F4D2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E42DCEA5-D363-46D2-A2C2-653CB68A1EDA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AC0A2032-2BFF-47B1-9219-5A9175E1B00A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0673C682-88A0-4FA9-8534-C417C27E6E59}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3B6232C5-367D-4D94-8E32-6E2BDE93A28E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3DF1B95E-8B08-4587-8844-2F6667E8E37F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AEA51F57-7D6C-46C6-AC7C-AFDD898432B1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0146C0DF-F748-47EE-87EC-3DCC33F7BB63}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E38F49EE-1061-42F7-A802-05EF5C078BAA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D35A4361-7C22-4034-8473-DCF012AA4BF4}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{073E8AAA-8FFD-4453-8F41-6AA1DCCCF787}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D0E74F96-9A61-4314-A50D-9FA382126A60}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{131771A9-D351-4384-B6B8-CBD6458338B3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4F551F26-29AD-430B-AF42-E2466378AFB3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0F03BC00-7133-4C70-8F67-ABAC7E12FA44}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{10B6BD25-927D-4AF0-A490-4A183C0CAF1F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8B844876-B566-4CA6-875B-DED3A00DCD71}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67210890-87B4-408A-961E-97618E129902}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5222,7 +5222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA40D413-FFE8-4053-A36F-0F305DAB2CB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990E2462-3625-4EED-8DD4-BA9B931EE0BA}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6486,18 +6486,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA27E930-7B2F-4268-97C8-467E583928C5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CDB2E0ED-66E3-421B-9F22-9CA4FB018D75}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BF5B779E-35BA-4579-9C8F-A87B1D885D7A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA8C56E2-A12A-4394-B8C2-937F3C155117}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0EED7757-4F9E-4F1B-8209-EC39DAE972A3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9B1B725D-611A-47F0-9ECB-608D4BE5A581}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9BED8520-E632-4BC3-812D-4652397A500A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0404809-F9AC-4A31-8E23-9CCD037F36FF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9BD2C444-D256-4842-8AB0-8B448289BF07}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B7AB64C7-969A-4138-9455-B101BC3EF8FC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7510C9B6-8B80-49A6-B9B7-F5C47B077D00}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6DC75FE5-E7DB-4B07-9003-58BB7E8B2864}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EEBAA5B7-D6D2-4389-8110-1316A19530B4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6AA09AD5-5273-4755-B59C-DDF80BC0A029}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7BEC6A6C-4BC9-4D11-B5A7-7737F4C66D36}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9231396D-65C5-4C79-A26F-84F809E04423}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E8732F33-29D3-40D8-BCB2-6C23B555EBC7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{519D6ACF-3E09-4CE7-9AAD-7DE8D99068D7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF937214-DE83-4D10-9810-F14DBA5E9072}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8E53101E-06ED-46B1-BFAC-4342F509405D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C0102640-995E-4117-96E3-BF3C16EA78FD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1914F3FB-1E63-47A3-A241-40F4415C9E4E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A94FCA4-8FAE-46D7-BD1F-093302395235}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F33D9F2-AF06-45A4-B7C9-F01CD037BB28}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6510,7 +6510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7530EAA-7E46-4EA0-92FA-CCF4C1495B76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC92B9B-7D94-4750-BBBF-ACE6E2DDFCD5}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7789,18 +7789,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CD24BBFF-F840-44C0-82E2-FCF86545F568}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5E7C34DB-23AD-41F3-9C1B-35D2D8078AC3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C2E8105D-EF72-4E62-848F-C36F38043E60}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C675ADAF-17F3-409A-B2B1-8438F0D8ABEF}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{9000A5D3-8043-4251-AE69-C8993EB3650E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4531FB55-DCC7-427A-9899-30FFEC2A707D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8146BA2D-3FCE-4A93-964F-E71C842D7DD8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D93BAB7-761E-4A44-A0FF-3499FC7F1FA0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A099DA61-E886-4951-B2C1-68EF64C52ABF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{65CB3B1F-8C3D-4345-AC00-FDF497A21BB6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{07CB701C-C74F-4CA2-9D5B-21EFB4E8938E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1BBD026B-0CA9-4BCC-A2FD-D4EAC1724783}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A48BEA6E-9DC7-4FF3-AD80-03A77613ECF8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0AA848A0-BA1D-4839-AABF-51C42CDC7BE0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{634981AE-D592-4E55-9AB4-92346B00B64D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E53A3FE5-1E61-4808-8580-164BB10E1891}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{5FD9AA7F-654D-40B1-8E97-E60B97C19131}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BE6E534B-984A-467F-A725-4D7DDCA0FDEC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{35D7B113-7AE9-4646-B7B3-089DFD0BE2D0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3DEA11DF-4C64-4ED0-A906-F278B42DDB71}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E1337E2E-9D31-4D48-B50F-13B732E5BFB8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FE42AA84-358F-48E4-9AEF-F78381797113}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{819E747D-1837-405A-849F-387625BDB6B2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D410DC9-C9BE-4605-A728-BF58EF477F31}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7813,7 +7813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FD824A-4E96-49CD-A13E-740D1FD8D652}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0B1261-41B3-4F6B-AB56-94740937157D}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9092,18 +9092,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35DDB428-AACC-4314-924B-92370F977833}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{211E9615-BB4E-4949-AFF9-C9BE7D8D2D80}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{58075806-C610-4601-AE4C-762D82B91053}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E6C38858-5712-4865-B3E5-88BC63A9EF97}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FC36646B-B446-4CC6-A08F-879E67A9F06A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{21FF21EC-1EB3-4ED2-B16C-8111240BDD7E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA3FEECC-BE4A-4B7B-A018-847407D2909E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{389E15B2-F237-4B71-8898-97D32117C838}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CE2DB59B-1B3D-42A0-A352-829A75BA3A6B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B0157592-12E8-4197-BD84-2523CFF38604}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{82A986B8-B992-4203-AEC4-7799E349B35C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{187C38F7-63E5-4B4D-81C1-56FE1AFAA06D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DCEFE4E5-2ED5-4214-A24D-9C9124C879E1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7601D52C-610D-4E94-8827-4737D7DF040E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1CA31709-240B-4253-B85A-5FD134F1326D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0EC91502-B92E-46C6-B6C9-CA3892CDA18A}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{1961AA00-F98E-44F1-86D6-40D9705D252B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC156C46-7CB9-408A-86EE-54736FE5160D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{06FA974A-460C-48E1-B5CE-82206D3CA8F4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D80B6094-EF9C-4AF3-A42E-D4C4B1F0154F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{25DB4857-262D-44F1-A91F-2A6F5F4B7D62}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7FECB40F-7411-47DA-A0F9-FD5C78C23CA6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{707700D4-6D7F-4337-B2A4-E7EF9C0F1315}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B9E2BA58-45DE-4712-8353-16C6618062BA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9116,7 +9116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9767F9F-88DE-4AAB-A016-71728B83F712}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3CF422-1FC1-4B2C-A06D-D126E86A9657}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10395,18 +10395,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{708ADAA2-EFB3-4131-B162-B99FD74AD604}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3E9F7F99-99AF-4151-B592-B335DD197DB2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C7F6CDE0-2F04-48E3-B165-EC3ED8F3C468}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{90477A0D-7886-4909-96B4-42A7E7CF4D99}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A1746108-8570-4348-91AC-9B0CD66EBF76}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ADA82E36-ACED-4327-ADA1-398DC2B770E5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A8F29007-B9F8-4D92-A473-EB7DB7D34F5B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{73413BD7-9DAB-4545-A169-75DB15396389}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5C28CBFC-FC92-4BFC-BBD3-1997FE958F80}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8DBC9DCF-C3E6-4763-B994-DBD935F81DC5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C171BD89-17D6-4E87-BAD7-494D645DC5BA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7A8B6A48-E95A-4E19-A98B-49A36CE35062}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9F06365-CF4C-476D-8045-E22CBECFA837}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{05876528-C2FE-4A9E-923A-37F3FBD5E708}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8EB1675B-4B3F-45C6-9E61-6C9ED83254AC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EAB7299B-77C7-4E16-AD58-5B6E0F3CBB50}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{5A36935B-053A-40F6-A400-DF485A7CCD92}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{29B5585D-E675-42E1-92EC-519C4F0267B6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{701D035E-D13C-4C2B-8C6E-C782ED8AF7EF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5E8C51E8-7C11-4892-849C-FCBA4FB1694E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B95033A2-BFD4-4FE4-B7A0-B6982AD9F8DB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{28DDB0AA-C383-49C2-9E8E-68FE228DADB7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47B293AB-08A6-4651-9391-02560143AFE0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F9DE0D1A-688B-4F7D-B777-2C571546D7AB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10419,7 +10419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129A7973-14E4-4BF4-99A2-F9803AD794C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDFA452-5D21-4462-8883-040E9D9DE0FD}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -11699,18 +11699,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{71F72551-2C3F-4466-A547-21DE0657C00C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D963BA7-1583-4939-B795-6B493E31927E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{854A97FB-D008-4115-9AAE-D192437CD749}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA7ADA21-6B1C-4567-98A3-D5C5A53B027A}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C6E10D5E-BF26-49B5-9904-DB0C0D61D096}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1C21FB79-DC69-4984-B263-E0952580D152}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{574C4E21-9212-4977-AE5A-95BA4EF6154E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75B2E1D4-97AF-40B2-B5E3-334586EF71F3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A91C3A6C-1EA6-44C8-886C-6EC76511EEC8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F973A03F-32D9-4C6A-9E24-823E23004909}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5A22951E-4709-4EA5-A0CC-CC3358F2EFE0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{69147D75-324E-45AE-9150-7398889E540B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A1E6B08-07B9-49D9-8A4B-787C3BEAF2DB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0B6C83B-3108-4E07-8292-7523B37036FE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{309398CD-5623-4818-AC2D-958FC42296D7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{08551596-EEAF-45BD-814E-D70D32842B54}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{76AA0E5D-7885-41CF-9103-5782873A8D67}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{849E8A42-D410-4E25-8F45-16478124F6B7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9BC4976C-4738-40F0-94FA-F14C48F10181}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E870C74-6364-4C3B-97D0-CFBF2E953EB4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A19CD54A-1AD5-4C73-8788-872EF207339D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{868B3B39-ADDD-4580-AD8F-E1C6733A46CB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FAABB146-435E-4D16-AB56-B3DB2BE047C3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4D1B90FD-6F31-481F-BE27-32002B242D2A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11723,7 +11723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E911BCAC-B848-4D38-926D-76EDC90E356B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C3FF3E-5AE6-4D1E-BCFA-E480CB12C00C}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -13003,18 +13003,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3FCACA76-B59C-48C1-AE75-11CA2651957E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{67BE0870-8FAF-4F1A-89F6-CDB56E16FE32}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4031C2C6-F991-41D7-B4F0-6F30F77834A1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CC8EAA49-25EE-4050-BDF0-59808FBFF776}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{461A8E32-93E5-4386-85B5-D075CC40863B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EAA54969-88EE-4D03-9455-AE84CD966CD4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{41607A7C-6112-48BC-99C7-29A7707FF489}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4B6ACAD-58B8-496C-AADF-95E90267884B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EB7C5461-D370-4178-984D-8365BDBE3C25}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{60F3E1FB-54FF-416D-A880-53156DB790FA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{61901931-BCD3-4346-AA4C-1E1F1FD1E7FA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{53D551BD-6743-4265-BAFA-A14A527C1F33}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A9999F3F-F531-408A-82A3-2D92EB3AD581}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A82FF2E3-0E82-4E93-9F8C-7B645C5A7F6A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9F53434C-3CDC-4C6E-A089-ADF5B81B57C1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{636FF1B6-8F71-40A1-9603-BAAB1CFBCD64}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F49C6319-73CF-4169-9111-C1E1199FFD4E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1C6871DE-79E5-4E1C-B87B-CAEC1BE5C2D2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D409770D-BE6E-4961-9A42-8ECEA7FA7095}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{55D1D4AB-009B-44FE-8019-F0E5A51C1F03}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{714C57DB-9884-494D-BCBE-ADD65E388AAE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E59CE607-4289-4C80-9CBB-CAB06ADB124E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2765B211-5EFD-49DA-B2CF-A6E9C19D817D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FD962772-0A9E-4A7F-A0A8-5951AC10A943}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13027,7 +13027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B560B8-4E97-4AB2-9EFC-B5D21C40C0FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F1195D-6F17-4A60-A11E-758DAB36FF19}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -14307,18 +14307,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B73FB8CF-478E-440E-BEA0-7E15522861B3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E086874B-E9FE-4535-B982-78FA7853C6B8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5E7C0808-03C8-4F9A-98E2-409712BE23C0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B36A944E-DBF3-43FE-ABDB-61DF96FB541F}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{93B9882F-6A1B-4C26-A546-63D7D78C468F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{09D6E641-CC0F-40D2-B55C-2C7CD96C6A62}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7516B449-FB9F-4E69-87B7-7270B0F667D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B478816D-1F53-41E3-94F4-5D5EB3E1978C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0B8296B3-3FA5-41F2-A925-FA3A68822D65}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CEA07C6A-4D29-4B14-9387-3E0DBCE6C5CF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A0B7AB89-A5A9-4056-93BF-62EF360DB401}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9A86CC66-8EDD-49D8-87C1-A11E7EC8F749}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BB3B1E3C-C0C6-4029-B1AF-3F6DA4F9F03C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{740C77D8-2414-4FCF-972B-A78488A321AE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DA8C82AD-3C1D-4BA6-BE28-16A344F1F955}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A9AA6E7D-3CFA-4F8F-B86E-D956A4ECF841}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4D5DB828-0AE6-4959-84AE-CB7C7D200EF3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{87B12CDF-B6E1-4241-8582-0A365E1EDCF7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52B3CB3F-800A-494C-AF68-DD63841A0FD0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{38DB18A6-1F8C-4DDE-804B-9457402DA9F3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CEC0C0D0-0C62-473B-9566-8AE2235957B0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7602663B-E17B-46D3-B57D-31880B43E5E7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9DAACFDD-5C42-4095-B7D5-E7D6D1FC407D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BE318298-30C4-4D6E-B725-274EE7C479CF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14331,7 +14331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A09816-A97E-4484-81AB-B23769E8E97B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6D8CF8-7D10-4CCB-B610-84A72321E990}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -15611,18 +15611,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5262892D-B6C6-4038-8176-195211EDE187}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C90F9A4-5FBE-4B04-B2A7-D7ADF578FE57}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B1F7C184-E07E-4A73-B8CF-6997DC81FA68}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F6DE55E8-F14B-4EE6-AA34-5BD0765B53D8}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{DEA3A1C1-F014-4E42-B10F-72EAFB66EB9C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7112DC20-E79A-47CF-AD23-1077062DCE93}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CA2F47B3-1580-4976-BC37-DB0CFB93E1A9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{477A4E1F-3B8E-4BBE-BF48-C873B8BFEF09}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0A0D0134-AB23-415E-AC9F-9CE4F63DD7CA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AFEFE357-8E12-41B9-BDC9-AE233098954F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{32FF6373-6DAC-4791-BD42-B8D084439718}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{400B415B-8F27-454D-8093-DFE767E163AF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{51E03A37-F253-4BFC-BB12-CA73726550EA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FF2F76CA-0877-471F-8817-3E257EE245DA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E05AB287-DF90-485E-A10E-CF188609DB9C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F5B84076-3FCE-4EF2-AF31-1A8CF05426CA}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4A0CF5AE-74EA-460E-AED6-8687B92ABE7C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4BBBA0EA-18C3-4A87-87A6-F40E02EEBC32}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9CF42ACE-499F-468D-B5C7-96E8F826784D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4030865-4BCE-4F4A-B231-FE1ACD74763E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9D2676B9-0DAC-4560-897D-6EEC494CC67D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C60FDEB3-C495-4F90-84DF-AB6118A82419}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F53D8EC-D60D-4111-AB00-7D368C8A7482}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{39A2B695-800B-4E97-B6D3-EF9F45B01700}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15635,7 +15635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA124C83-132B-4C71-85ED-EBFA66356EC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB35A9B-CDA2-40C4-BA3D-EC9A82162AF7}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -16915,18 +16915,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6452D7EF-1579-44B8-8DA5-0D0BB36FDF90}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{340A7281-37EC-4A6D-A25F-E4580BC07E99}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{92A307DB-C22D-4DBB-BA37-634B81816669}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5BE20F61-6240-479E-8A2C-74195728A5E7}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{5F48092C-FDA8-48C2-A2E1-F9B1102BB199}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D8E22AA8-488D-4689-A39B-99827F2F0C8C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C8A882E2-F832-4A86-967F-E28C973B8F90}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72A3C298-56D8-45D4-B307-63FA1C4D2009}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FB1F020C-886C-411D-AB18-9395D8D8CC88}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{73C74A57-1831-4C01-BC4C-5F9271E48B4F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8B87931C-81A5-4B2D-A3FC-B5E30BAFD000}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4BD806A0-5B00-4F27-8000-2C0A20ACA6BC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{52BF1F3B-F232-46EC-8BA3-38F01D954844}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{18095B1D-BACF-4ECF-B65A-C62F170BE45D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A106E677-F458-48CE-A4D4-5F614A68B2F6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D4D362C4-7B7E-433B-8D21-5503F64FB4C5}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C9BE3232-5622-4359-9C58-24AEA9BE1EF1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{62305FED-DAB0-449B-B703-7D59D0B2F30E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D9173DB-AAAC-4888-947D-402FA3B7D3A6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{06BE17E9-F12E-4B31-ACA5-76433ED99FA4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D377864D-62FF-4045-B732-D1C1C8487401}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{16AF29BC-527E-4778-8C7F-3CDEE2611C9B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDF4A4EC-4DAF-4860-84D9-90A6EB79A447}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C8517FFF-3042-4C35-8F91-ABD23C913BDC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
